--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_447__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_447__Reeval_LHS_Modell_1.2.xlsx
@@ -5876,7 +5876,7 @@
                   <c:v>60.17470169067383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.87020874023438</c:v>
+                  <c:v>55.87021255493164</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>49.72373199462891</c:v>
@@ -5885,43 +5885,43 @@
                   <c:v>49.6883430480957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.51041221618652</c:v>
+                  <c:v>25.51041984558105</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54.84302139282227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.45951080322266</c:v>
+                  <c:v>54.45950698852539</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.71189880371094</c:v>
+                  <c:v>67.71188354492188</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>41.94455718994141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.64041900634766</c:v>
+                  <c:v>78.64040374755859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.90888977050781</c:v>
+                  <c:v>23.90888023376465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.27074813842773</c:v>
+                  <c:v>35.27075576782227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.83963775634766</c:v>
+                  <c:v>61.83962631225586</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.94086837768555</c:v>
+                  <c:v>37.94085693359375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.59544372558594</c:v>
+                  <c:v>38.59543609619141</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.39871978759766</c:v>
+                  <c:v>53.39873504638672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.77596664428711</c:v>
+                  <c:v>34.77595901489258</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>57.10269927978516</c:v>
@@ -5930,13 +5930,13 @@
                   <c:v>42.7867317199707</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.54543304443359</c:v>
+                  <c:v>38.54542541503906</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45.92554092407227</c:v>
+                  <c:v>45.92553329467773</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41.69580459594727</c:v>
+                  <c:v>41.69579315185547</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>58.26924896240234</c:v>
@@ -5945,109 +5945,109 @@
                   <c:v>48.07612228393555</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39.54801559448242</c:v>
+                  <c:v>39.54800415039062</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49.72989273071289</c:v>
+                  <c:v>49.72990036010742</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.13107681274414</c:v>
+                  <c:v>47.13108444213867</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>55.45905685424805</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59.91820907592773</c:v>
+                  <c:v>59.91819763183594</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>54.68154144287109</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.00526809692383</c:v>
+                  <c:v>35.00526428222656</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>64.47618103027344</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.7744026184082</c:v>
+                  <c:v>47.77439498901367</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44.30569839477539</c:v>
+                  <c:v>44.30568313598633</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33.27183532714844</c:v>
+                  <c:v>33.27184677124023</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>53.98617553710938</c:v>
+                  <c:v>53.98616409301758</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33.9130973815918</c:v>
+                  <c:v>33.91310501098633</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51.91048431396484</c:v>
+                  <c:v>51.91047286987305</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>66.89582061767578</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>67.99472808837891</c:v>
+                  <c:v>67.99473571777344</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>34.69241714477539</c:v>
+                  <c:v>34.69240570068359</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>55.84055709838867</c:v>
+                  <c:v>55.84055328369141</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45.94282150268555</c:v>
+                  <c:v>45.94281005859375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>46.88019180297852</c:v>
+                  <c:v>46.88018035888672</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.88724517822266</c:v>
+                  <c:v>44.88724899291992</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43.46071243286133</c:v>
+                  <c:v>43.46072769165039</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.133358955383301</c:v>
+                  <c:v>5.133353233337402</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>40.46090316772461</c:v>
+                  <c:v>40.46089935302734</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>55.65051651000977</c:v>
+                  <c:v>55.65053558349609</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>41.08233642578125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>56.73220443725586</c:v>
+                  <c:v>56.73219680786133</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>64.24722290039062</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>59.21678924560547</c:v>
+                  <c:v>59.21677780151367</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>47.80929183959961</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.62099075317383</c:v>
+                  <c:v>48.62097930908203</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>54.54619598388672</c:v>
+                  <c:v>54.54620361328125</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>37.48543930053711</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>38.14355850219727</c:v>
+                  <c:v>38.14354705810547</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43.76719665527344</c:v>
+                  <c:v>43.76718139648438</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>45.16613388061523</c:v>
@@ -6056,16 +6056,16 @@
                   <c:v>50.11264038085938</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62.37606811523438</c:v>
+                  <c:v>62.37605667114258</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>65.35529327392578</c:v>
+                  <c:v>65.35530853271484</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-7.012658596038818</c:v>
+                  <c:v>-7.012670516967773</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>44.04105377197266</c:v>
+                  <c:v>44.04104232788086</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>47.71147537231445</c:v>
@@ -6077,16 +6077,16 @@
                   <c:v>39.20227432250977</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>84.66345977783203</c:v>
+                  <c:v>84.66346740722656</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>52.68034744262695</c:v>
+                  <c:v>52.68033599853516</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>56.15176773071289</c:v>
+                  <c:v>56.15175628662109</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>37.57249069213867</c:v>
+                  <c:v>37.57248306274414</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>38.3026008605957</c:v>
@@ -6098,73 +6098,73 @@
                   <c:v>53.54455947875977</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>53.09338760375977</c:v>
+                  <c:v>53.09339141845703</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>38.73115158081055</c:v>
+                  <c:v>38.73116302490234</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>21.1948299407959</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>35.11165237426758</c:v>
+                  <c:v>35.11164474487305</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>37.025390625</c:v>
+                  <c:v>37.02538681030273</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>44.31380462646484</c:v>
+                  <c:v>44.31380081176758</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>44.26731109619141</c:v>
+                  <c:v>44.26731491088867</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>54.84746932983398</c:v>
+                  <c:v>54.84745788574219</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>57.13884735107422</c:v>
+                  <c:v>57.13883209228516</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>39.76560211181641</c:v>
+                  <c:v>39.76560592651367</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>40.05343627929688</c:v>
+                  <c:v>40.05342864990234</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>57.28326034545898</c:v>
+                  <c:v>57.28326797485352</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>44.59169387817383</c:v>
+                  <c:v>44.5916748046875</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>44.94830322265625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>42.74832534790039</c:v>
+                  <c:v>42.74833297729492</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>64.33739471435547</c:v>
+                  <c:v>64.33738708496094</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>42.81425857543945</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>46.3611946105957</c:v>
+                  <c:v>46.36119079589844</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>49.48866271972656</c:v>
+                  <c:v>49.48865509033203</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>58.15338897705078</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42.80487823486328</c:v>
+                  <c:v>42.80488586425781</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>72.25141906738281</c:v>
+                  <c:v>72.25142669677734</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>47.52617263793945</c:v>
+                  <c:v>47.52616882324219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6891,7 +6891,7 @@
         <v>81.04689999999999</v>
       </c>
       <c r="F3">
-        <v>55.87020874023438</v>
+        <v>55.87021255493164</v>
       </c>
       <c r="G3">
         <v>103</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.51041221618652</v>
+        <v>25.51041984558105</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>54.45951080322266</v>
+        <v>54.45950698852539</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>70.2401</v>
       </c>
       <c r="F9">
-        <v>67.71189880371094</v>
+        <v>67.71188354492188</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>78.64041900634766</v>
+        <v>78.64040374755859</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>23.90888977050781</v>
+        <v>23.90888023376465</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>98.44929999999999</v>
       </c>
       <c r="F13">
-        <v>35.27074813842773</v>
+        <v>35.27075576782227</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>61.83963775634766</v>
+        <v>61.83962631225586</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>92.2294</v>
       </c>
       <c r="F15">
-        <v>37.94086837768555</v>
+        <v>37.94085693359375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.59544372558594</v>
+        <v>38.59543609619141</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>53.39871978759766</v>
+        <v>53.39873504638672</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>79.6208</v>
       </c>
       <c r="F18">
-        <v>34.77596664428711</v>
+        <v>34.77595901489258</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.54543304443359</v>
+        <v>38.54542541503906</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>45.92554092407227</v>
+        <v>45.92553329467773</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.69580459594727</v>
+        <v>41.69579315185547</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>98.4127</v>
       </c>
       <c r="F26">
-        <v>39.54801559448242</v>
+        <v>39.54800415039062</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>97.9389</v>
       </c>
       <c r="F27">
-        <v>49.72989273071289</v>
+        <v>49.72990036010742</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>90.157</v>
       </c>
       <c r="F28">
-        <v>47.13107681274414</v>
+        <v>47.13108444213867</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>59.91820907592773</v>
+        <v>59.91819763183594</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>88.6494</v>
       </c>
       <c r="F32">
-        <v>35.00526809692383</v>
+        <v>35.00526428222656</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>47.7744026184082</v>
+        <v>47.77439498901367</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>93.7411</v>
       </c>
       <c r="F35">
-        <v>44.30569839477539</v>
+        <v>44.30568313598633</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>33.27183532714844</v>
+        <v>33.27184677124023</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>53.98617553710938</v>
+        <v>53.98616409301758</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.404</v>
       </c>
       <c r="F38">
-        <v>33.9130973815918</v>
+        <v>33.91310501098633</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>95.8798</v>
       </c>
       <c r="F39">
-        <v>51.91048431396484</v>
+        <v>51.91047286987305</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>94.85250000000001</v>
       </c>
       <c r="F41">
-        <v>67.99472808837891</v>
+        <v>67.99473571777344</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>34.69241714477539</v>
+        <v>34.69240570068359</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>88.684</v>
       </c>
       <c r="F43">
-        <v>55.84055709838867</v>
+        <v>55.84055328369141</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>92.8233</v>
       </c>
       <c r="F44">
-        <v>45.94282150268555</v>
+        <v>45.94281005859375</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>46.88019180297852</v>
+        <v>46.88018035888672</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>44.88724517822266</v>
+        <v>44.88724899291992</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>43.46071243286133</v>
+        <v>43.46072769165039</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>5.133358955383301</v>
+        <v>5.133353233337402</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>91.9205</v>
       </c>
       <c r="F49">
-        <v>40.46090316772461</v>
+        <v>40.46089935302734</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>55.65051651000977</v>
+        <v>55.65053558349609</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>87.05159999999999</v>
       </c>
       <c r="F52">
-        <v>56.73220443725586</v>
+        <v>56.73219680786133</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>59.21678924560547</v>
+        <v>59.21677780151367</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>63.5626</v>
       </c>
       <c r="F56">
-        <v>48.62099075317383</v>
+        <v>48.62097930908203</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>67.7923</v>
       </c>
       <c r="F57">
-        <v>54.54619598388672</v>
+        <v>54.54620361328125</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>98.1859</v>
       </c>
       <c r="F59">
-        <v>38.14355850219727</v>
+        <v>38.14354705810547</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.90219999999999</v>
       </c>
       <c r="F60">
-        <v>43.76719665527344</v>
+        <v>43.76718139648438</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>93.2159</v>
       </c>
       <c r="F63">
-        <v>62.37606811523438</v>
+        <v>62.37605667114258</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>93.4151</v>
       </c>
       <c r="F64">
-        <v>65.35529327392578</v>
+        <v>65.35530853271484</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-7.012658596038818</v>
+        <v>-7.012670516967773</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>44.04105377197266</v>
+        <v>44.04104232788086</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>97.982</v>
       </c>
       <c r="F70">
-        <v>84.66345977783203</v>
+        <v>84.66346740722656</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>94.41</v>
       </c>
       <c r="F71">
-        <v>52.68034744262695</v>
+        <v>52.68033599853516</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>56.15176773071289</v>
+        <v>56.15175628662109</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>37.57249069213867</v>
+        <v>37.57248306274414</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>84.90900000000001</v>
       </c>
       <c r="F77">
-        <v>53.09338760375977</v>
+        <v>53.09339141845703</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>71.7201</v>
       </c>
       <c r="F78">
-        <v>38.73115158081055</v>
+        <v>38.73116302490234</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>91.229</v>
       </c>
       <c r="F80">
-        <v>35.11165237426758</v>
+        <v>35.11164474487305</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>37.025390625</v>
+        <v>37.02538681030273</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>97.7243</v>
       </c>
       <c r="F82">
-        <v>44.31380462646484</v>
+        <v>44.31380081176758</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>73.425</v>
       </c>
       <c r="F83">
-        <v>44.26731109619141</v>
+        <v>44.26731491088867</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>36.4333</v>
       </c>
       <c r="F84">
-        <v>54.84746932983398</v>
+        <v>54.84745788574219</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.43989999999999</v>
       </c>
       <c r="F85">
-        <v>57.13884735107422</v>
+        <v>57.13883209228516</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>39.76560211181641</v>
+        <v>39.76560592651367</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>92.4842</v>
       </c>
       <c r="F87">
-        <v>40.05343627929688</v>
+        <v>40.05342864990234</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>57.28326034545898</v>
+        <v>57.28326797485352</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>94.4674</v>
       </c>
       <c r="F89">
-        <v>44.59169387817383</v>
+        <v>44.5916748046875</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>92.1071</v>
       </c>
       <c r="F91">
-        <v>42.74832534790039</v>
+        <v>42.74833297729492</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>64.33739471435547</v>
+        <v>64.33738708496094</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>92.3792</v>
       </c>
       <c r="F94">
-        <v>46.3611946105957</v>
+        <v>46.36119079589844</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>49.48866271972656</v>
+        <v>49.48865509033203</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>42.80487823486328</v>
+        <v>42.80488586425781</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>84.1915</v>
       </c>
       <c r="F98">
-        <v>72.25141906738281</v>
+        <v>72.25142669677734</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>47.52617263793945</v>
+        <v>47.52616882324219</v>
       </c>
     </row>
     <row r="100" spans="1:6">
